--- a/01.設計書/図書管理システム_テーブル定義.xlsx
+++ b/01.設計書/図書管理システム_テーブル定義.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="シーケンス一覧" sheetId="2" r:id="rId1"/>
-    <sheet name="ユーザーマスタ" sheetId="1" r:id="rId2"/>
-    <sheet name="図書マスタ" sheetId="3" r:id="rId3"/>
-    <sheet name="個人所蔵図書管理" sheetId="5" r:id="rId4"/>
-    <sheet name="図書貸出管理" sheetId="4" r:id="rId5"/>
+    <sheet name="ユーザーマスタ" sheetId="1" r:id="rId1"/>
+    <sheet name="図書マスタ" sheetId="3" r:id="rId2"/>
+    <sheet name="個人所蔵図書管理" sheetId="5" r:id="rId3"/>
+    <sheet name="図書貸出管理" sheetId="4" r:id="rId4"/>
+    <sheet name="外部サービスアクセス履歴" sheetId="6" r:id="rId5"/>
+    <sheet name="シーケンス一覧" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="107">
   <si>
     <t>論理名</t>
     <rPh sb="0" eb="2">
@@ -188,10 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>update_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>図書マスタ</t>
     <rPh sb="0" eb="2">
       <t>トショ</t>
@@ -282,19 +279,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>publisher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>publication_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>regist_datetime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_datetime</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -328,10 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>is_deleted</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>is_editable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,6 +397,154 @@
   <si>
     <t>smallint</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>response_data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンスデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp without time zone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>access_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス時刻</t>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web_api_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サービス区分</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web_api_access_history_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サービスアクセス履歴ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT　NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_web_api_access_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サービスアクセス履歴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modify_datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modify_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サービスアクセス履歴IDシーケンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book_id_sequence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web_api_access_history_id_sequence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書IDシーケンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publsh_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
   </si>
 </sst>
 </file>
@@ -787,25 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -865,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>13</v>
@@ -971,10 +1085,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
@@ -990,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
@@ -1026,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>25</v>
@@ -1044,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
@@ -1062,7 +1176,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -1082,12 +1196,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1117,10 +1231,10 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -1148,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>13</v>
@@ -1156,10 +1270,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -1176,27 +1290,25 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1">
-        <v>100</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>46</v>
@@ -1207,17 +1319,19 @@
       <c r="E12" s="1">
         <v>100</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
@@ -1235,12 +1349,14 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1248,13 +1364,13 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1264,13 +1380,13 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1280,31 +1396,29 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -1316,13 +1430,13 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
@@ -1334,13 +1448,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
@@ -1352,13 +1466,13 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
@@ -1367,6 +1481,24 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1375,12 +1507,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1410,10 +1542,10 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -1441,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>13</v>
@@ -1449,10 +1581,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -1489,10 +1621,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1509,10 +1641,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
@@ -1530,7 +1662,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
@@ -1566,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
@@ -1584,7 +1716,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -1602,7 +1734,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -1622,11 +1754,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1655,10 +1789,10 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -1686,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>13</v>
@@ -1694,10 +1828,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
@@ -1714,10 +1848,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -1734,10 +1868,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1754,13 +1888,13 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
@@ -1772,13 +1906,13 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -1793,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
@@ -1829,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
@@ -1847,7 +1981,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1865,7 +1999,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -1883,4 +2017,271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>